--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Mmrn2-Cd93.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Mmrn2-Cd93.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.2706537325334</v>
+        <v>34.349525</v>
       </c>
       <c r="H2">
-        <v>26.2706537325334</v>
+        <v>103.048575</v>
       </c>
       <c r="I2">
-        <v>0.9034620685144971</v>
+        <v>0.9193849879779717</v>
       </c>
       <c r="J2">
-        <v>0.9034620685144971</v>
+        <v>0.9193849879779719</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N2">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O2">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P2">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q2">
-        <v>2592.247561929581</v>
+        <v>4396.192046416275</v>
       </c>
       <c r="R2">
-        <v>2592.247561929581</v>
+        <v>39565.72841774648</v>
       </c>
       <c r="S2">
-        <v>0.3660980485717671</v>
+        <v>0.4224334522243148</v>
       </c>
       <c r="T2">
-        <v>0.3660980485717671</v>
+        <v>0.4224334522243148</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.2706537325334</v>
+        <v>34.349525</v>
       </c>
       <c r="H3">
-        <v>26.2706537325334</v>
+        <v>103.048575</v>
       </c>
       <c r="I3">
-        <v>0.9034620685144971</v>
+        <v>0.9193849879779717</v>
       </c>
       <c r="J3">
-        <v>0.9034620685144971</v>
+        <v>0.9193849879779719</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N3">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O3">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P3">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q3">
-        <v>1480.504903358672</v>
+        <v>2076.546925716317</v>
       </c>
       <c r="R3">
-        <v>1480.504903358672</v>
+        <v>18688.92233144685</v>
       </c>
       <c r="S3">
-        <v>0.209088809255968</v>
+        <v>0.1995369804763687</v>
       </c>
       <c r="T3">
-        <v>0.209088809255968</v>
+        <v>0.1995369804763687</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.2706537325334</v>
+        <v>34.349525</v>
       </c>
       <c r="H4">
-        <v>26.2706537325334</v>
+        <v>103.048575</v>
       </c>
       <c r="I4">
-        <v>0.9034620685144971</v>
+        <v>0.9193849879779717</v>
       </c>
       <c r="J4">
-        <v>0.9034620685144971</v>
+        <v>0.9193849879779719</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N4">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O4">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P4">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q4">
-        <v>1553.053746505029</v>
+        <v>2039.668451287717</v>
       </c>
       <c r="R4">
-        <v>1553.053746505029</v>
+        <v>18357.01606158945</v>
       </c>
       <c r="S4">
-        <v>0.2193347403514727</v>
+        <v>0.1959932996951027</v>
       </c>
       <c r="T4">
-        <v>0.2193347403514727</v>
+        <v>0.1959932996951027</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>26.2706537325334</v>
+        <v>34.349525</v>
       </c>
       <c r="H5">
-        <v>26.2706537325334</v>
+        <v>103.048575</v>
       </c>
       <c r="I5">
-        <v>0.9034620685144971</v>
+        <v>0.9193849879779717</v>
       </c>
       <c r="J5">
-        <v>0.9034620685144971</v>
+        <v>0.9193849879779719</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N5">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O5">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P5">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q5">
-        <v>725.7714669354449</v>
+        <v>970.6421563929417</v>
       </c>
       <c r="R5">
-        <v>725.7714669354449</v>
+        <v>8735.779407536476</v>
       </c>
       <c r="S5">
-        <v>0.1024992835006678</v>
+        <v>0.09326974633280108</v>
       </c>
       <c r="T5">
-        <v>0.1024992835006678</v>
+        <v>0.09326974633280109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>26.2706537325334</v>
+        <v>34.349525</v>
       </c>
       <c r="H6">
-        <v>26.2706537325334</v>
+        <v>103.048575</v>
       </c>
       <c r="I6">
-        <v>0.9034620685144971</v>
+        <v>0.9193849879779717</v>
       </c>
       <c r="J6">
-        <v>0.9034620685144971</v>
+        <v>0.9193849879779719</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N6">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O6">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P6">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q6">
-        <v>45.60841264551826</v>
+        <v>84.83135021561667</v>
       </c>
       <c r="R6">
-        <v>45.60841264551826</v>
+        <v>763.48215194055</v>
       </c>
       <c r="S6">
-        <v>0.006441186834621361</v>
+        <v>0.008151509249384495</v>
       </c>
       <c r="T6">
-        <v>0.006441186834621361</v>
+        <v>0.008151509249384497</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.08891085749205</v>
+        <v>1.096366</v>
       </c>
       <c r="H7">
-        <v>1.08891085749205</v>
+        <v>3.289098</v>
       </c>
       <c r="I7">
-        <v>0.03744823656669586</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="J7">
-        <v>0.03744823656669586</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N7">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O7">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P7">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q7">
-        <v>107.4478977276752</v>
+        <v>140.317383985986</v>
       </c>
       <c r="R7">
-        <v>107.4478977276752</v>
+        <v>1262.856455873874</v>
       </c>
       <c r="S7">
-        <v>0.01517465625542336</v>
+        <v>0.01348320462310216</v>
       </c>
       <c r="T7">
-        <v>0.01517465625542336</v>
+        <v>0.01348320462310216</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.08891085749205</v>
+        <v>1.096366</v>
       </c>
       <c r="H8">
-        <v>1.08891085749205</v>
+        <v>3.289098</v>
       </c>
       <c r="I8">
-        <v>0.03744823656669586</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="J8">
-        <v>0.03744823656669586</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N8">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O8">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P8">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q8">
-        <v>61.36649206567005</v>
+        <v>66.27909546812933</v>
       </c>
       <c r="R8">
-        <v>61.36649206567005</v>
+        <v>596.511859213164</v>
       </c>
       <c r="S8">
-        <v>0.008666669543017563</v>
+        <v>0.006368808917647461</v>
       </c>
       <c r="T8">
-        <v>0.008666669543017563</v>
+        <v>0.006368808917647462</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>27</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.08891085749205</v>
+        <v>1.096366</v>
       </c>
       <c r="H9">
-        <v>1.08891085749205</v>
+        <v>3.289098</v>
       </c>
       <c r="I9">
-        <v>0.03744823656669586</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="J9">
-        <v>0.03744823656669586</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N9">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O9">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P9">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q9">
-        <v>64.37362024012899</v>
+        <v>65.10201061774534</v>
       </c>
       <c r="R9">
-        <v>64.37362024012899</v>
+        <v>585.918095559708</v>
       </c>
       <c r="S9">
-        <v>0.009091360368324046</v>
+        <v>0.006255701935136541</v>
       </c>
       <c r="T9">
-        <v>0.009091360368324046</v>
+        <v>0.006255701935136541</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.08891085749205</v>
+        <v>1.096366</v>
       </c>
       <c r="H10">
-        <v>1.08891085749205</v>
+        <v>3.289098</v>
       </c>
       <c r="I10">
-        <v>0.03744823656669586</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="J10">
-        <v>0.03744823656669586</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N10">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O10">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P10">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q10">
-        <v>30.0830134815121</v>
+        <v>30.98089590571934</v>
       </c>
       <c r="R10">
-        <v>30.0830134815121</v>
+        <v>278.828063151474</v>
       </c>
       <c r="S10">
-        <v>0.004248565103304326</v>
+        <v>0.002976977955529452</v>
       </c>
       <c r="T10">
-        <v>0.004248565103304326</v>
+        <v>0.002976977955529452</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.08891085749205</v>
+        <v>1.096366</v>
       </c>
       <c r="H11">
-        <v>1.08891085749205</v>
+        <v>3.289098</v>
       </c>
       <c r="I11">
-        <v>0.03744823656669586</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="J11">
-        <v>0.03744823656669586</v>
+        <v>0.02934487279604178</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N11">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O11">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P11">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q11">
-        <v>1.890455267246723</v>
+        <v>2.707641753721333</v>
       </c>
       <c r="R11">
-        <v>1.890455267246723</v>
+        <v>24.368775783492</v>
       </c>
       <c r="S11">
-        <v>0.0002669852966265591</v>
+        <v>0.0002601793646261683</v>
       </c>
       <c r="T11">
-        <v>0.0002669852966265591</v>
+        <v>0.0002601793646261683</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.85503845690729</v>
+        <v>0.9739683333333332</v>
       </c>
       <c r="H12">
-        <v>0.85503845690729</v>
+        <v>2.921905</v>
       </c>
       <c r="I12">
-        <v>0.02940523752479945</v>
+        <v>0.02606882815504994</v>
       </c>
       <c r="J12">
-        <v>0.02940523752479945</v>
+        <v>0.02606882815504994</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N12">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O12">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P12">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q12">
-        <v>84.37062045886931</v>
+        <v>124.652432325085</v>
       </c>
       <c r="R12">
-        <v>84.37062045886931</v>
+        <v>1121.871890925765</v>
       </c>
       <c r="S12">
-        <v>0.01191549756296784</v>
+        <v>0.0119779474507191</v>
       </c>
       <c r="T12">
-        <v>0.01191549756296784</v>
+        <v>0.0119779474507191</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>26</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.85503845690729</v>
+        <v>0.9739683333333332</v>
       </c>
       <c r="H13">
-        <v>0.85503845690729</v>
+        <v>2.921905</v>
       </c>
       <c r="I13">
-        <v>0.02940523752479945</v>
+        <v>0.02606882815504994</v>
       </c>
       <c r="J13">
-        <v>0.02940523752479945</v>
+        <v>0.02606882815504994</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N13">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O13">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P13">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q13">
-        <v>48.18641518782639</v>
+        <v>58.87973555175444</v>
       </c>
       <c r="R13">
-        <v>48.18641518782639</v>
+        <v>529.91761996579</v>
       </c>
       <c r="S13">
-        <v>0.006805273086958127</v>
+        <v>0.005657798770519668</v>
       </c>
       <c r="T13">
-        <v>0.006805273086958127</v>
+        <v>0.005657798770519669</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.85503845690729</v>
+        <v>0.9739683333333332</v>
       </c>
       <c r="H14">
-        <v>0.85503845690729</v>
+        <v>2.921905</v>
       </c>
       <c r="I14">
-        <v>0.02940523752479945</v>
+        <v>0.02606882815504994</v>
       </c>
       <c r="J14">
-        <v>0.02940523752479945</v>
+        <v>0.02606882815504994</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N14">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O14">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P14">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q14">
-        <v>50.54768306969299</v>
+        <v>57.83405977384778</v>
       </c>
       <c r="R14">
-        <v>50.54768306969299</v>
+        <v>520.5065379646301</v>
       </c>
       <c r="S14">
-        <v>0.007138750327481822</v>
+        <v>0.005557318986173453</v>
       </c>
       <c r="T14">
-        <v>0.007138750327481822</v>
+        <v>0.005557318986173453</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.85503845690729</v>
+        <v>0.9739683333333332</v>
       </c>
       <c r="H15">
-        <v>0.85503845690729</v>
+        <v>2.921905</v>
       </c>
       <c r="I15">
-        <v>0.02940523752479945</v>
+        <v>0.02606882815504994</v>
       </c>
       <c r="J15">
-        <v>0.02940523752479945</v>
+        <v>0.02606882815504994</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N15">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O15">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P15">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q15">
-        <v>23.62189085486375</v>
+        <v>27.52220659019611</v>
       </c>
       <c r="R15">
-        <v>23.62189085486375</v>
+        <v>247.699859311765</v>
       </c>
       <c r="S15">
-        <v>0.003336073403075617</v>
+        <v>0.002644629856924689</v>
       </c>
       <c r="T15">
-        <v>0.003336073403075617</v>
+        <v>0.00264462985692469</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.85503845690729</v>
+        <v>0.9739683333333332</v>
       </c>
       <c r="H16">
-        <v>0.85503845690729</v>
+        <v>2.921905</v>
       </c>
       <c r="I16">
-        <v>0.02940523752479945</v>
+        <v>0.02606882815504994</v>
       </c>
       <c r="J16">
-        <v>0.02940523752479945</v>
+        <v>0.02606882815504994</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N16">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O16">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P16">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q16">
-        <v>1.484430009525089</v>
+        <v>2.405362193041111</v>
       </c>
       <c r="R16">
-        <v>1.484430009525089</v>
+        <v>21.64825973737</v>
       </c>
       <c r="S16">
-        <v>0.0002096431443160395</v>
+        <v>0.0002311330907130234</v>
       </c>
       <c r="T16">
-        <v>0.0002096431443160395</v>
+        <v>0.0002311330907130235</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.863157545416751</v>
+        <v>0.9415566666666667</v>
       </c>
       <c r="H17">
-        <v>0.863157545416751</v>
+        <v>2.82467</v>
       </c>
       <c r="I17">
-        <v>0.02968445739400758</v>
+        <v>0.02520131107093657</v>
       </c>
       <c r="J17">
-        <v>0.02968445739400758</v>
+        <v>0.02520131107093657</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N17">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O17">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P17">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q17">
-        <v>85.17176867573599</v>
+        <v>120.50425527719</v>
       </c>
       <c r="R17">
-        <v>85.17176867573599</v>
+        <v>1084.53829749471</v>
       </c>
       <c r="S17">
-        <v>0.01202864215730332</v>
+        <v>0.01157934594917451</v>
       </c>
       <c r="T17">
-        <v>0.01202864215730332</v>
+        <v>0.01157934594917451</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>26</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.863157545416751</v>
+        <v>0.9415566666666667</v>
       </c>
       <c r="H18">
-        <v>0.863157545416751</v>
+        <v>2.82467</v>
       </c>
       <c r="I18">
-        <v>0.02968445739400758</v>
+        <v>0.02520131107093657</v>
       </c>
       <c r="J18">
-        <v>0.02968445739400758</v>
+        <v>0.02520131107093657</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N18">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O18">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P18">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q18">
-        <v>48.64397328559745</v>
+        <v>56.9203388272289</v>
       </c>
       <c r="R18">
-        <v>48.64397328559745</v>
+        <v>512.2830494450601</v>
       </c>
       <c r="S18">
-        <v>0.006869893121387826</v>
+        <v>0.00546951884237297</v>
       </c>
       <c r="T18">
-        <v>0.006869893121387826</v>
+        <v>0.005469518842372971</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.863157545416751</v>
+        <v>0.9415566666666667</v>
       </c>
       <c r="H19">
-        <v>0.863157545416751</v>
+        <v>2.82467</v>
       </c>
       <c r="I19">
-        <v>0.02968445739400758</v>
+        <v>0.02520131107093657</v>
       </c>
       <c r="J19">
-        <v>0.02968445739400758</v>
+        <v>0.02520131107093657</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N19">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O19">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P19">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q19">
-        <v>51.02766278227277</v>
+        <v>55.90946099253556</v>
       </c>
       <c r="R19">
-        <v>51.02766278227277</v>
+        <v>503.1851489328201</v>
       </c>
       <c r="S19">
-        <v>0.007206536922678268</v>
+        <v>0.005372382818974118</v>
       </c>
       <c r="T19">
-        <v>0.007206536922678268</v>
+        <v>0.005372382818974118</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>22</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.863157545416751</v>
+        <v>0.9415566666666667</v>
       </c>
       <c r="H20">
-        <v>0.863157545416751</v>
+        <v>2.82467</v>
       </c>
       <c r="I20">
-        <v>0.02968445739400758</v>
+        <v>0.02520131107093657</v>
       </c>
       <c r="J20">
-        <v>0.02968445739400758</v>
+        <v>0.02520131107093657</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N20">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O20">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P20">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q20">
-        <v>23.84619447660396</v>
+        <v>26.60632405541223</v>
       </c>
       <c r="R20">
-        <v>23.84619447660396</v>
+        <v>239.45691649871</v>
       </c>
       <c r="S20">
-        <v>0.003367751364475857</v>
+        <v>0.00255662200446608</v>
       </c>
       <c r="T20">
-        <v>0.003367751364475857</v>
+        <v>0.002556622004466081</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.863157545416751</v>
+        <v>0.9415566666666667</v>
       </c>
       <c r="H21">
-        <v>0.863157545416751</v>
+        <v>2.82467</v>
       </c>
       <c r="I21">
-        <v>0.02968445739400758</v>
+        <v>0.02520131107093657</v>
       </c>
       <c r="J21">
-        <v>0.02968445739400758</v>
+        <v>0.02520131107093657</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N21">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O21">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P21">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q21">
-        <v>1.498525537668967</v>
+        <v>2.325316677242222</v>
       </c>
       <c r="R21">
-        <v>1.498525537668967</v>
+        <v>20.92785009518</v>
       </c>
       <c r="S21">
-        <v>0.0002116338281623079</v>
+        <v>0.000223441455948895</v>
       </c>
       <c r="T21">
-        <v>0.0002116338281623079</v>
+        <v>0.000223441455948895</v>
       </c>
     </row>
   </sheetData>
